--- a/correlation/Correlation Results/breakfastCorrelationMatrix.xlsx
+++ b/correlation/Correlation Results/breakfastCorrelationMatrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christine\Documents\Instacart Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christine\Documents\Instacart Data\Instacart_DataAnalytics\correlation\Correlation Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1F6F5B-56D6-4CAB-B863-E15F6FD0C87B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC610BE0-397A-4703-A139-BB0E6D000F3C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{36B8C895-A6AB-486E-A21F-7E33F837F7EF}"/>
   </bookViews>
@@ -235,7 +235,112 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="45">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8EC16B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8EC16B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -909,7 +1014,7 @@
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -959,7 +1064,7 @@
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -986,10 +1091,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{5B8B5CBB-A449-4F76-B234-FB4BB09DB859}">
-      <tableStyleElement type="wholeTable" dxfId="29"/>
-      <tableStyleElement type="headerRow" dxfId="28"/>
+      <tableStyleElement type="wholeTable" dxfId="44"/>
+      <tableStyleElement type="headerRow" dxfId="43"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FF8EC16B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1002,37 +1112,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72C0ADAE-A5F0-446B-AE13-0969529AE1E2}" name="Table1" displayName="Table1" ref="A1:Z26" totalsRowShown="0" headerRowDxfId="25" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72C0ADAE-A5F0-446B-AE13-0969529AE1E2}" name="Table1" displayName="Table1" ref="A1:Z26" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A1:Z26" xr:uid="{0035CB54-3044-417A-B094-9CC13207DB85}"/>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{6B65E637-6114-4C47-8EE4-A1B5F851B3C4}" name="Column1" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{4167BBB5-8BDA-417F-9304-8CC89D435FE9}" name="Cereal" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{1D05B0F5-B565-409E-A626-6F575AB55394}" name="Milk" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{593A261D-9D83-4669-8DC6-2AC147B7D767}" name="Yogurt" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{7417E18F-8B5C-4224-A33D-7488EF9438A8}" name="Juice" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{617EC23D-85B2-4F1E-920D-9EC7F0DE40D1}" name="Bread" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{85C03F6F-1ED0-4F65-90ED-E76D8D4650FF}" name="Bbakery" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{16F20A61-EEE0-4B56-A602-A2778497CF61}" name="Butter" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{52B390BD-B0BB-4401-8332-D1EB4F6D8B4D}" name="Spreads" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{9E64D889-8ADB-416F-9460-30E8C012D3B5}" name="Coffee" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{0C0A9A9D-E454-4EA2-ABA4-EFB810022819}" name="Eggs" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{D834DE01-13A2-414A-8392-64C3803A3704}" name="FrozenB" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{1EF6A7C9-80DB-4C38-A22E-5856502A40C9}" name="BBarsPastries" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{4A535B33-E11F-4D6E-80BC-D696791F992A}" name="FrozenJuice" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{34D6B6FE-40F9-401D-A988-1FB2F1FD0F1C}" name="Protein" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{18F61F20-B2BA-45F9-9898-AAE08AC7DF53}" name="Fruits" dataDxfId="10"/>
-    <tableColumn id="17" xr3:uid="{8387916D-538A-4E9A-B47E-4D9311593FF3}" name="Granola" dataDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{48B0D89C-01FF-4A5E-B342-76E7168483BB}" name="OatmealPancake" dataDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{427E51CD-1DA5-4025-90EA-C4A05732A1A4}" name="SyrupHoney" dataDxfId="7"/>
-    <tableColumn id="20" xr3:uid="{942D1011-F8A6-43AB-83FD-1B390F05CBCB}" name="GranolaBars" dataDxfId="6"/>
-    <tableColumn id="21" xr3:uid="{3D80768D-0CAF-4580-82F0-629B8CD498F3}" name="NutsSeeds" dataDxfId="5"/>
-    <tableColumn id="22" xr3:uid="{C5C19BB7-9BB3-432E-A76F-24F02226C971}" name="Creamers" dataDxfId="4"/>
-    <tableColumn id="23" xr3:uid="{5E605D14-2711-46E6-A17F-71BD134D6BC6}" name="CreamCheese" dataDxfId="3"/>
-    <tableColumn id="24" xr3:uid="{9C7E3EDD-5D34-49CD-A635-03AD86C39C43}" name="Tea" dataDxfId="2"/>
-    <tableColumn id="25" xr3:uid="{36F3D42B-9156-42F6-8A85-F7212D90C02A}" name="BaconSausage" dataDxfId="1"/>
-    <tableColumn id="26" xr3:uid="{7AE83F9E-5387-442B-9E95-9C96D5671C1D}" name="LactoseFree" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6B65E637-6114-4C47-8EE4-A1B5F851B3C4}" name="Column1" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{4167BBB5-8BDA-417F-9304-8CC89D435FE9}" name="Cereal" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{1D05B0F5-B565-409E-A626-6F575AB55394}" name="Milk" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{593A261D-9D83-4669-8DC6-2AC147B7D767}" name="Yogurt" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{7417E18F-8B5C-4224-A33D-7488EF9438A8}" name="Juice" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{617EC23D-85B2-4F1E-920D-9EC7F0DE40D1}" name="Bread" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{85C03F6F-1ED0-4F65-90ED-E76D8D4650FF}" name="Bbakery" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{16F20A61-EEE0-4B56-A602-A2778497CF61}" name="Butter" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{52B390BD-B0BB-4401-8332-D1EB4F6D8B4D}" name="Spreads" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{9E64D889-8ADB-416F-9460-30E8C012D3B5}" name="Coffee" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{0C0A9A9D-E454-4EA2-ABA4-EFB810022819}" name="Eggs" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{D834DE01-13A2-414A-8392-64C3803A3704}" name="FrozenB" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{1EF6A7C9-80DB-4C38-A22E-5856502A40C9}" name="BBarsPastries" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{4A535B33-E11F-4D6E-80BC-D696791F992A}" name="FrozenJuice" dataDxfId="27"/>
+    <tableColumn id="15" xr3:uid="{34D6B6FE-40F9-401D-A988-1FB2F1FD0F1C}" name="Protein" dataDxfId="26"/>
+    <tableColumn id="16" xr3:uid="{18F61F20-B2BA-45F9-9898-AAE08AC7DF53}" name="Fruits" dataDxfId="25"/>
+    <tableColumn id="17" xr3:uid="{8387916D-538A-4E9A-B47E-4D9311593FF3}" name="Granola" dataDxfId="24"/>
+    <tableColumn id="18" xr3:uid="{48B0D89C-01FF-4A5E-B342-76E7168483BB}" name="OatmealPancake" dataDxfId="23"/>
+    <tableColumn id="19" xr3:uid="{427E51CD-1DA5-4025-90EA-C4A05732A1A4}" name="SyrupHoney" dataDxfId="22"/>
+    <tableColumn id="20" xr3:uid="{942D1011-F8A6-43AB-83FD-1B390F05CBCB}" name="GranolaBars" dataDxfId="21"/>
+    <tableColumn id="21" xr3:uid="{3D80768D-0CAF-4580-82F0-629B8CD498F3}" name="NutsSeeds" dataDxfId="20"/>
+    <tableColumn id="22" xr3:uid="{C5C19BB7-9BB3-432E-A76F-24F02226C971}" name="Creamers" dataDxfId="19"/>
+    <tableColumn id="23" xr3:uid="{5E605D14-2711-46E6-A17F-71BD134D6BC6}" name="CreamCheese" dataDxfId="18"/>
+    <tableColumn id="24" xr3:uid="{9C7E3EDD-5D34-49CD-A635-03AD86C39C43}" name="Tea" dataDxfId="17"/>
+    <tableColumn id="25" xr3:uid="{36F3D42B-9156-42F6-8A85-F7212D90C02A}" name="BaconSausage" dataDxfId="16"/>
+    <tableColumn id="26" xr3:uid="{7AE83F9E-5387-442B-9E95-9C96D5671C1D}" name="LactoseFree" dataDxfId="15"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1335,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC9AE88-B70C-451D-BEDA-58C67EB0414D}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="30" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3440,7 +3550,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:Z26">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3450,6 +3560,27 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="between">
+      <formula>14</formula>
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="between">
+      <formula>0.14</formula>
+      <formula>0.2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="between">
+      <formula>0.21</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:Z26">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>0.21</formula>
+      <formula>0.5</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/correlation/Correlation Results/breakfastCorrelationMatrix.xlsx
+++ b/correlation/Correlation Results/breakfastCorrelationMatrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christine\Documents\Instacart Data\Instacart_DataAnalytics\correlation\Correlation Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC610BE0-397A-4703-A139-BB0E6D000F3C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CC3F2F-2420-42D7-BBE3-EF54C8FCAA9A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{36B8C895-A6AB-486E-A21F-7E33F837F7EF}"/>
   </bookViews>
@@ -173,7 +173,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +192,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -205,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -231,11 +237,42 @@
     <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="41">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8EC16B"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -246,6 +283,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF8EC16B"/>
         </patternFill>
       </fill>
@@ -274,70 +318,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF8EC16B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1091,8 +1072,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{5B8B5CBB-A449-4F76-B234-FB4BB09DB859}">
-      <tableStyleElement type="wholeTable" dxfId="44"/>
-      <tableStyleElement type="headerRow" dxfId="43"/>
+      <tableStyleElement type="wholeTable" dxfId="40"/>
+      <tableStyleElement type="headerRow" dxfId="39"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1112,35 +1093,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72C0ADAE-A5F0-446B-AE13-0969529AE1E2}" name="Table1" displayName="Table1" ref="A1:Z26" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72C0ADAE-A5F0-446B-AE13-0969529AE1E2}" name="Table1" displayName="Table1" ref="A1:Z26" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A1:Z26" xr:uid="{0035CB54-3044-417A-B094-9CC13207DB85}"/>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{6B65E637-6114-4C47-8EE4-A1B5F851B3C4}" name="Column1" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{4167BBB5-8BDA-417F-9304-8CC89D435FE9}" name="Cereal" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{1D05B0F5-B565-409E-A626-6F575AB55394}" name="Milk" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{593A261D-9D83-4669-8DC6-2AC147B7D767}" name="Yogurt" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{7417E18F-8B5C-4224-A33D-7488EF9438A8}" name="Juice" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{617EC23D-85B2-4F1E-920D-9EC7F0DE40D1}" name="Bread" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{85C03F6F-1ED0-4F65-90ED-E76D8D4650FF}" name="Bbakery" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{16F20A61-EEE0-4B56-A602-A2778497CF61}" name="Butter" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{52B390BD-B0BB-4401-8332-D1EB4F6D8B4D}" name="Spreads" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{9E64D889-8ADB-416F-9460-30E8C012D3B5}" name="Coffee" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{0C0A9A9D-E454-4EA2-ABA4-EFB810022819}" name="Eggs" dataDxfId="30"/>
-    <tableColumn id="12" xr3:uid="{D834DE01-13A2-414A-8392-64C3803A3704}" name="FrozenB" dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{1EF6A7C9-80DB-4C38-A22E-5856502A40C9}" name="BBarsPastries" dataDxfId="28"/>
-    <tableColumn id="14" xr3:uid="{4A535B33-E11F-4D6E-80BC-D696791F992A}" name="FrozenJuice" dataDxfId="27"/>
-    <tableColumn id="15" xr3:uid="{34D6B6FE-40F9-401D-A988-1FB2F1FD0F1C}" name="Protein" dataDxfId="26"/>
-    <tableColumn id="16" xr3:uid="{18F61F20-B2BA-45F9-9898-AAE08AC7DF53}" name="Fruits" dataDxfId="25"/>
-    <tableColumn id="17" xr3:uid="{8387916D-538A-4E9A-B47E-4D9311593FF3}" name="Granola" dataDxfId="24"/>
-    <tableColumn id="18" xr3:uid="{48B0D89C-01FF-4A5E-B342-76E7168483BB}" name="OatmealPancake" dataDxfId="23"/>
-    <tableColumn id="19" xr3:uid="{427E51CD-1DA5-4025-90EA-C4A05732A1A4}" name="SyrupHoney" dataDxfId="22"/>
-    <tableColumn id="20" xr3:uid="{942D1011-F8A6-43AB-83FD-1B390F05CBCB}" name="GranolaBars" dataDxfId="21"/>
-    <tableColumn id="21" xr3:uid="{3D80768D-0CAF-4580-82F0-629B8CD498F3}" name="NutsSeeds" dataDxfId="20"/>
-    <tableColumn id="22" xr3:uid="{C5C19BB7-9BB3-432E-A76F-24F02226C971}" name="Creamers" dataDxfId="19"/>
-    <tableColumn id="23" xr3:uid="{5E605D14-2711-46E6-A17F-71BD134D6BC6}" name="CreamCheese" dataDxfId="18"/>
-    <tableColumn id="24" xr3:uid="{9C7E3EDD-5D34-49CD-A635-03AD86C39C43}" name="Tea" dataDxfId="17"/>
-    <tableColumn id="25" xr3:uid="{36F3D42B-9156-42F6-8A85-F7212D90C02A}" name="BaconSausage" dataDxfId="16"/>
-    <tableColumn id="26" xr3:uid="{7AE83F9E-5387-442B-9E95-9C96D5671C1D}" name="LactoseFree" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{6B65E637-6114-4C47-8EE4-A1B5F851B3C4}" name="Column1" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{4167BBB5-8BDA-417F-9304-8CC89D435FE9}" name="Cereal" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{1D05B0F5-B565-409E-A626-6F575AB55394}" name="Milk" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{593A261D-9D83-4669-8DC6-2AC147B7D767}" name="Yogurt" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{7417E18F-8B5C-4224-A33D-7488EF9438A8}" name="Juice" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{617EC23D-85B2-4F1E-920D-9EC7F0DE40D1}" name="Bread" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{85C03F6F-1ED0-4F65-90ED-E76D8D4650FF}" name="Bbakery" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{16F20A61-EEE0-4B56-A602-A2778497CF61}" name="Butter" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{52B390BD-B0BB-4401-8332-D1EB4F6D8B4D}" name="Spreads" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{9E64D889-8ADB-416F-9460-30E8C012D3B5}" name="Coffee" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{0C0A9A9D-E454-4EA2-ABA4-EFB810022819}" name="Eggs" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{D834DE01-13A2-414A-8392-64C3803A3704}" name="FrozenB" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{1EF6A7C9-80DB-4C38-A22E-5856502A40C9}" name="BBarsPastries" dataDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{4A535B33-E11F-4D6E-80BC-D696791F992A}" name="FrozenJuice" dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{34D6B6FE-40F9-401D-A988-1FB2F1FD0F1C}" name="Protein" dataDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{18F61F20-B2BA-45F9-9898-AAE08AC7DF53}" name="Fruits" dataDxfId="21"/>
+    <tableColumn id="17" xr3:uid="{8387916D-538A-4E9A-B47E-4D9311593FF3}" name="Granola" dataDxfId="20"/>
+    <tableColumn id="18" xr3:uid="{48B0D89C-01FF-4A5E-B342-76E7168483BB}" name="OatmealPancake" dataDxfId="19"/>
+    <tableColumn id="19" xr3:uid="{427E51CD-1DA5-4025-90EA-C4A05732A1A4}" name="SyrupHoney" dataDxfId="18"/>
+    <tableColumn id="20" xr3:uid="{942D1011-F8A6-43AB-83FD-1B390F05CBCB}" name="GranolaBars" dataDxfId="17"/>
+    <tableColumn id="21" xr3:uid="{3D80768D-0CAF-4580-82F0-629B8CD498F3}" name="NutsSeeds" dataDxfId="16"/>
+    <tableColumn id="22" xr3:uid="{C5C19BB7-9BB3-432E-A76F-24F02226C971}" name="Creamers" dataDxfId="15"/>
+    <tableColumn id="23" xr3:uid="{5E605D14-2711-46E6-A17F-71BD134D6BC6}" name="CreamCheese" dataDxfId="14"/>
+    <tableColumn id="24" xr3:uid="{9C7E3EDD-5D34-49CD-A635-03AD86C39C43}" name="Tea" dataDxfId="13"/>
+    <tableColumn id="25" xr3:uid="{36F3D42B-9156-42F6-8A85-F7212D90C02A}" name="BaconSausage" dataDxfId="12"/>
+    <tableColumn id="26" xr3:uid="{7AE83F9E-5387-442B-9E95-9C96D5671C1D}" name="LactoseFree" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1445,9 +1426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC9AE88-B70C-451D-BEDA-58C67EB0414D}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="30" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="30" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2675,7 +2654,7 @@
       <c r="B16" s="7">
         <v>0.16780900000000001</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="9">
         <v>0.25758999999999999</v>
       </c>
       <c r="D16" s="7">
@@ -3550,7 +3529,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:Z26">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3560,24 +3539,28 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
       <formula>14</formula>
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
       <formula>0.14</formula>
       <formula>0.2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
+      <formula>0.21</formula>
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="between">
       <formula>0.21</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:Z26">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="between">
       <formula>0.21</formula>
       <formula>0.5</formula>
     </cfRule>

--- a/correlation/Correlation Results/breakfastCorrelationMatrix.xlsx
+++ b/correlation/Correlation Results/breakfastCorrelationMatrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christine\Documents\Instacart Data\Instacart_DataAnalytics\correlation\Correlation Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CC3F2F-2420-42D7-BBE3-EF54C8FCAA9A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA55D1C7-666B-4FE7-AB7F-6FA9509526C7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{36B8C895-A6AB-486E-A21F-7E33F837F7EF}"/>
   </bookViews>
@@ -244,7 +244,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="60">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -283,6 +283,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF5353"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5353"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -319,6 +361,97 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5353"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8EC16B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8EC16B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1072,12 +1205,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{5B8B5CBB-A449-4F76-B234-FB4BB09DB859}">
-      <tableStyleElement type="wholeTable" dxfId="40"/>
-      <tableStyleElement type="headerRow" dxfId="39"/>
+      <tableStyleElement type="wholeTable" dxfId="59"/>
+      <tableStyleElement type="headerRow" dxfId="58"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFFF6600"/>
+      <color rgb="FFFF5353"/>
+      <color rgb="FFF84234"/>
       <color rgb="FF8EC16B"/>
     </mruColors>
   </colors>
@@ -1093,35 +1229,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72C0ADAE-A5F0-446B-AE13-0969529AE1E2}" name="Table1" displayName="Table1" ref="A1:Z26" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72C0ADAE-A5F0-446B-AE13-0969529AE1E2}" name="Table1" displayName="Table1" ref="A1:Z26" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
   <autoFilter ref="A1:Z26" xr:uid="{0035CB54-3044-417A-B094-9CC13207DB85}"/>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{6B65E637-6114-4C47-8EE4-A1B5F851B3C4}" name="Column1" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{4167BBB5-8BDA-417F-9304-8CC89D435FE9}" name="Cereal" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{1D05B0F5-B565-409E-A626-6F575AB55394}" name="Milk" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{593A261D-9D83-4669-8DC6-2AC147B7D767}" name="Yogurt" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{7417E18F-8B5C-4224-A33D-7488EF9438A8}" name="Juice" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{617EC23D-85B2-4F1E-920D-9EC7F0DE40D1}" name="Bread" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{85C03F6F-1ED0-4F65-90ED-E76D8D4650FF}" name="Bbakery" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{16F20A61-EEE0-4B56-A602-A2778497CF61}" name="Butter" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{52B390BD-B0BB-4401-8332-D1EB4F6D8B4D}" name="Spreads" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{9E64D889-8ADB-416F-9460-30E8C012D3B5}" name="Coffee" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{0C0A9A9D-E454-4EA2-ABA4-EFB810022819}" name="Eggs" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{D834DE01-13A2-414A-8392-64C3803A3704}" name="FrozenB" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{1EF6A7C9-80DB-4C38-A22E-5856502A40C9}" name="BBarsPastries" dataDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{4A535B33-E11F-4D6E-80BC-D696791F992A}" name="FrozenJuice" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{34D6B6FE-40F9-401D-A988-1FB2F1FD0F1C}" name="Protein" dataDxfId="22"/>
-    <tableColumn id="16" xr3:uid="{18F61F20-B2BA-45F9-9898-AAE08AC7DF53}" name="Fruits" dataDxfId="21"/>
-    <tableColumn id="17" xr3:uid="{8387916D-538A-4E9A-B47E-4D9311593FF3}" name="Granola" dataDxfId="20"/>
-    <tableColumn id="18" xr3:uid="{48B0D89C-01FF-4A5E-B342-76E7168483BB}" name="OatmealPancake" dataDxfId="19"/>
-    <tableColumn id="19" xr3:uid="{427E51CD-1DA5-4025-90EA-C4A05732A1A4}" name="SyrupHoney" dataDxfId="18"/>
-    <tableColumn id="20" xr3:uid="{942D1011-F8A6-43AB-83FD-1B390F05CBCB}" name="GranolaBars" dataDxfId="17"/>
-    <tableColumn id="21" xr3:uid="{3D80768D-0CAF-4580-82F0-629B8CD498F3}" name="NutsSeeds" dataDxfId="16"/>
-    <tableColumn id="22" xr3:uid="{C5C19BB7-9BB3-432E-A76F-24F02226C971}" name="Creamers" dataDxfId="15"/>
-    <tableColumn id="23" xr3:uid="{5E605D14-2711-46E6-A17F-71BD134D6BC6}" name="CreamCheese" dataDxfId="14"/>
-    <tableColumn id="24" xr3:uid="{9C7E3EDD-5D34-49CD-A635-03AD86C39C43}" name="Tea" dataDxfId="13"/>
-    <tableColumn id="25" xr3:uid="{36F3D42B-9156-42F6-8A85-F7212D90C02A}" name="BaconSausage" dataDxfId="12"/>
-    <tableColumn id="26" xr3:uid="{7AE83F9E-5387-442B-9E95-9C96D5671C1D}" name="LactoseFree" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{6B65E637-6114-4C47-8EE4-A1B5F851B3C4}" name="Column1" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{4167BBB5-8BDA-417F-9304-8CC89D435FE9}" name="Cereal" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{1D05B0F5-B565-409E-A626-6F575AB55394}" name="Milk" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{593A261D-9D83-4669-8DC6-2AC147B7D767}" name="Yogurt" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{7417E18F-8B5C-4224-A33D-7488EF9438A8}" name="Juice" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{617EC23D-85B2-4F1E-920D-9EC7F0DE40D1}" name="Bread" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{85C03F6F-1ED0-4F65-90ED-E76D8D4650FF}" name="Bbakery" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{16F20A61-EEE0-4B56-A602-A2778497CF61}" name="Butter" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{52B390BD-B0BB-4401-8332-D1EB4F6D8B4D}" name="Spreads" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{9E64D889-8ADB-416F-9460-30E8C012D3B5}" name="Coffee" dataDxfId="46"/>
+    <tableColumn id="11" xr3:uid="{0C0A9A9D-E454-4EA2-ABA4-EFB810022819}" name="Eggs" dataDxfId="45"/>
+    <tableColumn id="12" xr3:uid="{D834DE01-13A2-414A-8392-64C3803A3704}" name="FrozenB" dataDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{1EF6A7C9-80DB-4C38-A22E-5856502A40C9}" name="BBarsPastries" dataDxfId="43"/>
+    <tableColumn id="14" xr3:uid="{4A535B33-E11F-4D6E-80BC-D696791F992A}" name="FrozenJuice" dataDxfId="42"/>
+    <tableColumn id="15" xr3:uid="{34D6B6FE-40F9-401D-A988-1FB2F1FD0F1C}" name="Protein" dataDxfId="41"/>
+    <tableColumn id="16" xr3:uid="{18F61F20-B2BA-45F9-9898-AAE08AC7DF53}" name="Fruits" dataDxfId="40"/>
+    <tableColumn id="17" xr3:uid="{8387916D-538A-4E9A-B47E-4D9311593FF3}" name="Granola" dataDxfId="39"/>
+    <tableColumn id="18" xr3:uid="{48B0D89C-01FF-4A5E-B342-76E7168483BB}" name="OatmealPancake" dataDxfId="38"/>
+    <tableColumn id="19" xr3:uid="{427E51CD-1DA5-4025-90EA-C4A05732A1A4}" name="SyrupHoney" dataDxfId="37"/>
+    <tableColumn id="20" xr3:uid="{942D1011-F8A6-43AB-83FD-1B390F05CBCB}" name="GranolaBars" dataDxfId="36"/>
+    <tableColumn id="21" xr3:uid="{3D80768D-0CAF-4580-82F0-629B8CD498F3}" name="NutsSeeds" dataDxfId="35"/>
+    <tableColumn id="22" xr3:uid="{C5C19BB7-9BB3-432E-A76F-24F02226C971}" name="Creamers" dataDxfId="34"/>
+    <tableColumn id="23" xr3:uid="{5E605D14-2711-46E6-A17F-71BD134D6BC6}" name="CreamCheese" dataDxfId="33"/>
+    <tableColumn id="24" xr3:uid="{9C7E3EDD-5D34-49CD-A635-03AD86C39C43}" name="Tea" dataDxfId="32"/>
+    <tableColumn id="25" xr3:uid="{36F3D42B-9156-42F6-8A85-F7212D90C02A}" name="BaconSausage" dataDxfId="31"/>
+    <tableColumn id="26" xr3:uid="{7AE83F9E-5387-442B-9E95-9C96D5671C1D}" name="LactoseFree" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1426,7 +1562,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC9AE88-B70C-451D-BEDA-58C67EB0414D}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="30" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="30" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3529,7 +3667,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:Z26">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3539,28 +3677,40 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="between">
       <formula>14</formula>
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="between">
       <formula>0.14</formula>
       <formula>0.2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="between">
       <formula>0.21</formula>
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
       <formula>0.21</formula>
       <formula>0.5</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
+      <formula>0</formula>
+      <formula>0.03</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
+      <formula>0.03</formula>
+      <formula>0.07</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="between">
+      <formula>0.03</formula>
+      <formula>0.07</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:Z26">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="between">
       <formula>0.21</formula>
       <formula>0.5</formula>
     </cfRule>

--- a/correlation/Correlation Results/breakfastCorrelationMatrix.xlsx
+++ b/correlation/Correlation Results/breakfastCorrelationMatrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christine\Documents\Instacart Data\Instacart_DataAnalytics\correlation\Correlation Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA55D1C7-666B-4FE7-AB7F-6FA9509526C7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A951F0FD-30CA-4B7B-95BC-6DB8717BEEE1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{36B8C895-A6AB-486E-A21F-7E33F837F7EF}"/>
   </bookViews>
@@ -244,217 +244,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8EC16B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5353"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5353"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8EC16B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5353"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8EC16B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8EC16B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="39">
     <dxf>
       <font>
         <b val="0"/>
@@ -1181,6 +971,69 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5353"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8EC16B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1205,8 +1058,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{5B8B5CBB-A449-4F76-B234-FB4BB09DB859}">
-      <tableStyleElement type="wholeTable" dxfId="59"/>
-      <tableStyleElement type="headerRow" dxfId="58"/>
+      <tableStyleElement type="wholeTable" dxfId="38"/>
+      <tableStyleElement type="headerRow" dxfId="37"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1229,35 +1082,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72C0ADAE-A5F0-446B-AE13-0969529AE1E2}" name="Table1" displayName="Table1" ref="A1:Z26" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72C0ADAE-A5F0-446B-AE13-0969529AE1E2}" name="Table1" displayName="Table1" ref="A1:Z26" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A1:Z26" xr:uid="{0035CB54-3044-417A-B094-9CC13207DB85}"/>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{6B65E637-6114-4C47-8EE4-A1B5F851B3C4}" name="Column1" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{4167BBB5-8BDA-417F-9304-8CC89D435FE9}" name="Cereal" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{1D05B0F5-B565-409E-A626-6F575AB55394}" name="Milk" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{593A261D-9D83-4669-8DC6-2AC147B7D767}" name="Yogurt" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{7417E18F-8B5C-4224-A33D-7488EF9438A8}" name="Juice" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{617EC23D-85B2-4F1E-920D-9EC7F0DE40D1}" name="Bread" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{85C03F6F-1ED0-4F65-90ED-E76D8D4650FF}" name="Bbakery" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{16F20A61-EEE0-4B56-A602-A2778497CF61}" name="Butter" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{52B390BD-B0BB-4401-8332-D1EB4F6D8B4D}" name="Spreads" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{9E64D889-8ADB-416F-9460-30E8C012D3B5}" name="Coffee" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{0C0A9A9D-E454-4EA2-ABA4-EFB810022819}" name="Eggs" dataDxfId="45"/>
-    <tableColumn id="12" xr3:uid="{D834DE01-13A2-414A-8392-64C3803A3704}" name="FrozenB" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{1EF6A7C9-80DB-4C38-A22E-5856502A40C9}" name="BBarsPastries" dataDxfId="43"/>
-    <tableColumn id="14" xr3:uid="{4A535B33-E11F-4D6E-80BC-D696791F992A}" name="FrozenJuice" dataDxfId="42"/>
-    <tableColumn id="15" xr3:uid="{34D6B6FE-40F9-401D-A988-1FB2F1FD0F1C}" name="Protein" dataDxfId="41"/>
-    <tableColumn id="16" xr3:uid="{18F61F20-B2BA-45F9-9898-AAE08AC7DF53}" name="Fruits" dataDxfId="40"/>
-    <tableColumn id="17" xr3:uid="{8387916D-538A-4E9A-B47E-4D9311593FF3}" name="Granola" dataDxfId="39"/>
-    <tableColumn id="18" xr3:uid="{48B0D89C-01FF-4A5E-B342-76E7168483BB}" name="OatmealPancake" dataDxfId="38"/>
-    <tableColumn id="19" xr3:uid="{427E51CD-1DA5-4025-90EA-C4A05732A1A4}" name="SyrupHoney" dataDxfId="37"/>
-    <tableColumn id="20" xr3:uid="{942D1011-F8A6-43AB-83FD-1B390F05CBCB}" name="GranolaBars" dataDxfId="36"/>
-    <tableColumn id="21" xr3:uid="{3D80768D-0CAF-4580-82F0-629B8CD498F3}" name="NutsSeeds" dataDxfId="35"/>
-    <tableColumn id="22" xr3:uid="{C5C19BB7-9BB3-432E-A76F-24F02226C971}" name="Creamers" dataDxfId="34"/>
-    <tableColumn id="23" xr3:uid="{5E605D14-2711-46E6-A17F-71BD134D6BC6}" name="CreamCheese" dataDxfId="33"/>
-    <tableColumn id="24" xr3:uid="{9C7E3EDD-5D34-49CD-A635-03AD86C39C43}" name="Tea" dataDxfId="32"/>
-    <tableColumn id="25" xr3:uid="{36F3D42B-9156-42F6-8A85-F7212D90C02A}" name="BaconSausage" dataDxfId="31"/>
-    <tableColumn id="26" xr3:uid="{7AE83F9E-5387-442B-9E95-9C96D5671C1D}" name="LactoseFree" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{6B65E637-6114-4C47-8EE4-A1B5F851B3C4}" name="Column1" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{4167BBB5-8BDA-417F-9304-8CC89D435FE9}" name="Cereal" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{1D05B0F5-B565-409E-A626-6F575AB55394}" name="Milk" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{593A261D-9D83-4669-8DC6-2AC147B7D767}" name="Yogurt" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{7417E18F-8B5C-4224-A33D-7488EF9438A8}" name="Juice" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{617EC23D-85B2-4F1E-920D-9EC7F0DE40D1}" name="Bread" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{85C03F6F-1ED0-4F65-90ED-E76D8D4650FF}" name="Bbakery" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{16F20A61-EEE0-4B56-A602-A2778497CF61}" name="Butter" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{52B390BD-B0BB-4401-8332-D1EB4F6D8B4D}" name="Spreads" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{9E64D889-8ADB-416F-9460-30E8C012D3B5}" name="Coffee" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{0C0A9A9D-E454-4EA2-ABA4-EFB810022819}" name="Eggs" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{D834DE01-13A2-414A-8392-64C3803A3704}" name="FrozenB" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{1EF6A7C9-80DB-4C38-A22E-5856502A40C9}" name="BBarsPastries" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{4A535B33-E11F-4D6E-80BC-D696791F992A}" name="FrozenJuice" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{34D6B6FE-40F9-401D-A988-1FB2F1FD0F1C}" name="Protein" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{18F61F20-B2BA-45F9-9898-AAE08AC7DF53}" name="Fruits" dataDxfId="10"/>
+    <tableColumn id="17" xr3:uid="{8387916D-538A-4E9A-B47E-4D9311593FF3}" name="Granola" dataDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{48B0D89C-01FF-4A5E-B342-76E7168483BB}" name="OatmealPancake" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{427E51CD-1DA5-4025-90EA-C4A05732A1A4}" name="SyrupHoney" dataDxfId="7"/>
+    <tableColumn id="20" xr3:uid="{942D1011-F8A6-43AB-83FD-1B390F05CBCB}" name="GranolaBars" dataDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{3D80768D-0CAF-4580-82F0-629B8CD498F3}" name="NutsSeeds" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{C5C19BB7-9BB3-432E-A76F-24F02226C971}" name="Creamers" dataDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{5E605D14-2711-46E6-A17F-71BD134D6BC6}" name="CreamCheese" dataDxfId="3"/>
+    <tableColumn id="24" xr3:uid="{9C7E3EDD-5D34-49CD-A635-03AD86C39C43}" name="Tea" dataDxfId="2"/>
+    <tableColumn id="25" xr3:uid="{36F3D42B-9156-42F6-8A85-F7212D90C02A}" name="BaconSausage" dataDxfId="1"/>
+    <tableColumn id="26" xr3:uid="{7AE83F9E-5387-442B-9E95-9C96D5671C1D}" name="LactoseFree" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1562,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC9AE88-B70C-451D-BEDA-58C67EB0414D}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="30" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="30" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3677,40 +3530,40 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="between">
       <formula>14</formula>
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="between">
       <formula>0.14</formula>
       <formula>0.2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="between">
       <formula>0.21</formula>
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="between">
       <formula>0.21</formula>
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="between">
       <formula>0</formula>
       <formula>0.03</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="between">
       <formula>0.03</formula>
       <formula>0.07</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="between">
       <formula>0.03</formula>
       <formula>0.07</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:Z26">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="between">
       <formula>0.21</formula>
       <formula>0.5</formula>
     </cfRule>
